--- a/output/aggregate_tables/Analysis Group Statistics/Area 87_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 87_summary.xlsx
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>18</v>
@@ -640,28 +640,28 @@
         <v>27</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>45</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.36734693877551</v>
+        <v>18.55670103092784</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>27.55102040816326</v>
+        <v>27.83505154639175</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>45.91836734693878</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>4</v>
@@ -803,28 +803,28 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>4</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>83.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>83.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>18</v>
@@ -887,28 +887,28 @@
         <v>27</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>45</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.36734693877551</v>
+        <v>18.55670103092784</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>27.55102040816326</v>
+        <v>27.83505154639175</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>45.91836734693878</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
     </row>
   </sheetData>
@@ -979,16 +979,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1015,16 +1015,16 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>4</v>
@@ -1181,28 +1181,28 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>83.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.66666666666666</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>83.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
     </row>
     <row r="4">
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>18</v>
@@ -1273,28 +1273,28 @@
         <v>27</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>45</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>18.36734693877551</v>
+        <v>18.55670103092784</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>27.55102040816326</v>
+        <v>27.83505154639175</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>45.91836734693878</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>18</v>
@@ -1513,40 +1513,62 @@
         <v>27</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>45</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.36734693877551</v>
+        <v>18.55670103092784</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>27.55102040816326</v>
+        <v>27.83505154639175</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>54.08163265306123</v>
+        <v>53.60824742268041</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>45.91836734693878</v>
+        <v>46.39175257731959</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>54.08163265306123</v>
-      </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+        <v>53.60824742268041</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>66.66666666666666</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1668,31 +1690,31 @@
         <v>1.620121261944423</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.814085638951882</v>
+        <v>5.814166518951882</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.829410259103695</v>
+        <v>1.735594145060485</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.434206900896306</v>
+        <v>7.434287780896305</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.829410259103695</v>
+        <v>1.735594145060485</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.48907833691633</v>
+        <v>17.66785303263738</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>62.76258548396102</v>
+        <v>63.40503144859446</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>80.25166382087734</v>
+        <v>81.07288448123184</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
     </row>
   </sheetData>
@@ -1816,28 +1838,28 @@
         <v>5.813588038951881</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.152496285076618</v>
+        <v>1.159478901033408</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>7.368458335138729</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.152496285076618</v>
+        <v>1.159478901033408</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.24760681741023</v>
+        <v>18.23266580330473</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.22695693226161</v>
+        <v>68.17109317236695</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.52543625032815</v>
+        <v>13.59624102432833</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>86.47456374967184</v>
+        <v>86.40375897567168</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.52543625032815</v>
+        <v>13.59624102432833</v>
       </c>
     </row>
     <row r="5">
@@ -1851,28 +1873,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6344488297846527</v>
+        <v>0.5336500997846527</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>0.06375293909090908</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.6344488297846527</v>
+        <v>0.5336500997846527</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.131019417722438</v>
+        <v>10.67167974419841</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>90.86898058227756</v>
+        <v>89.32832025580159</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.131019417722438</v>
+        <v>10.67167974419841</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>90.86898058227756</v>
+        <v>89.32832025580159</v>
       </c>
     </row>
     <row r="6">
@@ -1883,31 +1905,31 @@
         <v>0.001498026666666667</v>
       </c>
       <c r="C6" s="14" t="n">
-        <v>0.0004976000000000001</v>
+        <v>0.00057848</v>
       </c>
       <c r="D6" s="12" t="n">
         <v>0.04246514424242424</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.001995626666666667</v>
+        <v>0.002076506666666667</v>
       </c>
       <c r="F6" s="12" t="n">
         <v>0.04246514424242424</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.36932229477012</v>
+        <v>3.363204183257881</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.11918887105544</v>
+        <v>1.298739467876196</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>95.51148883417446</v>
+        <v>95.33805634886592</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>4.48851116582556</v>
+        <v>4.661943651134076</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>95.51148883417446</v>
+        <v>95.33805634886592</v>
       </c>
     </row>
     <row r="7">
@@ -1920,31 +1942,31 @@
         <v>1.620121261944423</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.814085638951881</v>
+        <v>5.814166518951882</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.829410259103695</v>
+        <v>1.735594145060485</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>7.434206900896304</v>
+        <v>7.434287780896305</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1.829410259103695</v>
+        <v>1.735594145060485</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.48907833691633</v>
+        <v>17.66785303263737</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>62.76258548396102</v>
+        <v>63.40503144859446</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>80.25166382087735</v>
+        <v>81.07288448123184</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
     </row>
   </sheetData>
@@ -2064,19 +2086,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.48907833691633</v>
+        <v>17.66785303263738</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>62.76258548396102</v>
+        <v>63.40503144859446</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>80.25166382087734</v>
+        <v>81.07288448123184</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
